--- a/Affy/ARI/ARI_zpercentage_normed_results.xlsx
+++ b/Affy/ARI/ARI_zpercentage_normed_results.xlsx
@@ -487,28 +487,28 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.2333967132962108</v>
+        <v>0.01124924817744999</v>
       </c>
       <c r="C2">
+        <v>0.3250033953551542</v>
+      </c>
+      <c r="D2">
+        <v>0.4690748481128704</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.2313311609357522</v>
       </c>
-      <c r="D2">
-        <v>0.2313311609357522</v>
-      </c>
-      <c r="E2">
-        <v>-0.04773579361147272</v>
-      </c>
-      <c r="F2">
-        <v>-0.01422235913568487</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.2332593552326623</v>
-      </c>
       <c r="I2">
-        <v>0.03040360789480337</v>
+        <v>0.6767049423462985</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -516,28 +516,28 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.238961468736801</v>
+        <v>0.3562861756232065</v>
       </c>
       <c r="C3">
-        <v>0.4639048389197638</v>
+        <v>0.2818984299981965</v>
       </c>
       <c r="D3">
-        <v>0.5743762048620854</v>
+        <v>0.488069352733541</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.05339431913350126</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.04774712108833655</v>
       </c>
       <c r="G3">
-        <v>-0.001502783565012436</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6143980103603175</v>
+        <v>0.4839490503001195</v>
       </c>
       <c r="I3">
-        <v>0.06479425732519592</v>
+        <v>0.1395325829597731</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -545,28 +545,28 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1516702382260667</v>
+        <v>0.1845456900318564</v>
       </c>
       <c r="C4">
-        <v>0.05575768430332492</v>
+        <v>0.1321862666885196</v>
       </c>
       <c r="D4">
-        <v>0.2334425053830907</v>
+        <v>0.1699182720119316</v>
       </c>
       <c r="E4">
-        <v>0.2336290778331474</v>
+        <v>0.151613317885106</v>
       </c>
       <c r="F4">
-        <v>0.004757546265279556</v>
+        <v>0.2321718655443033</v>
       </c>
       <c r="G4">
-        <v>0.04737604686889477</v>
+        <v>0.1608706819801428</v>
       </c>
       <c r="H4">
-        <v>0.08077859362814163</v>
+        <v>0.1387576919398306</v>
       </c>
       <c r="I4">
-        <v>0.1568496852326661</v>
+        <v>0.4038575535856002</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -574,16 +574,16 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.8220315903547997</v>
+        <v>0.3085320317743733</v>
       </c>
       <c r="C5">
-        <v>0.0407769573604736</v>
+        <v>0.8491380323169346</v>
       </c>
       <c r="D5">
-        <v>0.4528341111527279</v>
+        <v>0.6538963727547132</v>
       </c>
       <c r="E5">
-        <v>-0.00604215882246058</v>
+        <v>-0.02441110408077751</v>
       </c>
       <c r="F5">
         <v>0.06377086857981945</v>
@@ -592,10 +592,10 @@
         <v>0.06377086857981945</v>
       </c>
       <c r="H5">
-        <v>0.645815616102869</v>
+        <v>0.3680954120143309</v>
       </c>
       <c r="I5">
-        <v>0.06377086857981945</v>
+        <v>-0.01901695892664874</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -603,28 +603,28 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.2425734954594428</v>
+        <v>0.3678593848085374</v>
       </c>
       <c r="C6">
-        <v>0.275030525030525</v>
+        <v>0.2047576031315868</v>
       </c>
       <c r="D6">
-        <v>0.3222778473091364</v>
+        <v>0.3785868559086702</v>
       </c>
       <c r="E6">
-        <v>0.09775062482643704</v>
+        <v>0.1108905275099262</v>
       </c>
       <c r="F6">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.301163156240176</v>
+        <v>0.5589600742804085</v>
       </c>
       <c r="I6">
-        <v>0.3191809695874736</v>
+        <v>0.3838143409699494</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -632,28 +632,28 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.00373494209868797</v>
+        <v>0.009318380708520969</v>
       </c>
       <c r="C7">
-        <v>0.09299526287178686</v>
+        <v>0.1552079724667571</v>
       </c>
       <c r="D7">
-        <v>0.2327218471457145</v>
+        <v>0.01038648203248693</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.01280175566934875</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>-0.01280175566934875</v>
       </c>
       <c r="H7">
-        <v>0.05866031217724366</v>
+        <v>0.118959523504126</v>
       </c>
       <c r="I7">
-        <v>0.01807847401873707</v>
+        <v>-0.01280175566934875</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -661,28 +661,28 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.06366870477050798</v>
+        <v>0.09996073751251677</v>
       </c>
       <c r="C8">
-        <v>-0.03153216365086955</v>
+        <v>0.1768414935347959</v>
       </c>
       <c r="D8">
-        <v>0.1261844694201143</v>
+        <v>0.2756025859783603</v>
       </c>
       <c r="E8">
-        <v>-0.005981966228749944</v>
+        <v>0.0225238498398859</v>
       </c>
       <c r="F8">
-        <v>-0.01971550842982503</v>
+        <v>-0.02486276456027156</v>
       </c>
       <c r="G8">
         <v>-0.01058170630014085</v>
       </c>
       <c r="H8">
-        <v>0.4489843378185437</v>
+        <v>0.1492403433014898</v>
       </c>
       <c r="I8">
-        <v>-0.04932288737877678</v>
+        <v>0.09707718452990623</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -690,28 +690,28 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.001385593293728432</v>
+        <v>0.296685726588274</v>
       </c>
       <c r="C9">
-        <v>0.221056213176698</v>
+        <v>0.0693593639405216</v>
       </c>
       <c r="D9">
-        <v>0.03616833871602113</v>
+        <v>0.01570140263607593</v>
       </c>
       <c r="E9">
-        <v>-0.08941583497565135</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.008735531775496833</v>
       </c>
       <c r="H9">
-        <v>0.05072480518343402</v>
+        <v>0.2091178390319828</v>
       </c>
       <c r="I9">
-        <v>0.425048904774555</v>
+        <v>0.8012695630330529</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -719,28 +719,28 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.0688986277749839</v>
+        <v>-0.01587301587301587</v>
       </c>
       <c r="C10">
-        <v>0.04248245289988915</v>
+        <v>-0.01587301587301587</v>
       </c>
       <c r="D10">
-        <v>-0.04748904375314312</v>
+        <v>-0.00678179402922467</v>
       </c>
       <c r="E10">
-        <v>0.140262599260948</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1321566939302625</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.02401182120428521</v>
+        <v>0.09954158480681068</v>
       </c>
       <c r="I10">
-        <v>-0.04659613986917538</v>
+        <v>0.2043222003929273</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -748,28 +748,28 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.123146532002508</v>
+        <v>0.008934597828698257</v>
       </c>
       <c r="C11">
-        <v>0.06408451980404353</v>
+        <v>0.1294213225719503</v>
       </c>
       <c r="D11">
-        <v>0.08477626219102469</v>
+        <v>0.07028549104016626</v>
       </c>
       <c r="E11">
-        <v>0.1548038046481864</v>
+        <v>0.09535205945333163</v>
       </c>
       <c r="F11">
-        <v>0.2353418854053179</v>
+        <v>0.2423727408389985</v>
       </c>
       <c r="G11">
-        <v>0.3495318241080953</v>
+        <v>0.4915423685964469</v>
       </c>
       <c r="H11">
-        <v>0.1290866854138648</v>
+        <v>0.126038581154617</v>
       </c>
       <c r="I11">
-        <v>0.01411762156539824</v>
+        <v>0.155808664068974</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -777,28 +777,28 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.02661596958174899</v>
+        <v>-0.03802281368821287</v>
       </c>
       <c r="C12">
-        <v>-0.03191936161276768</v>
+        <v>0.08950874271440465</v>
       </c>
       <c r="D12">
         <v>-0.02574926129168418</v>
       </c>
       <c r="E12">
-        <v>-0.03583473861720073</v>
+        <v>0.05204460966542741</v>
       </c>
       <c r="F12">
+        <v>0.005728314238952386</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-0.03802281368821287</v>
+      </c>
+      <c r="I12">
         <v>0.02302631578947371</v>
-      </c>
-      <c r="G12">
-        <v>0.7147083685545225</v>
-      </c>
-      <c r="H12">
-        <v>-0.02704987320371931</v>
-      </c>
-      <c r="I12">
-        <v>0.2062158756824864</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -806,16 +806,16 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.1486486486486486</v>
+        <v>-0.04904632152588552</v>
       </c>
       <c r="C13">
-        <v>-0.08450704225352125</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1463414634146342</v>
+        <v>0.01621621621621616</v>
       </c>
       <c r="E13">
-        <v>0.4807692307692308</v>
+        <v>0.3514986376021799</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.1031518624641833</v>
+        <v>-0.04904632152588552</v>
       </c>
       <c r="I13">
-        <v>0.1384615384615385</v>
+        <v>-0.04297994269340966</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -835,28 +835,28 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.006944444444444425</v>
+        <v>-0.04724964739069114</v>
       </c>
       <c r="C14">
-        <v>0.03076923076923077</v>
+        <v>0.04281767955801098</v>
       </c>
       <c r="D14">
-        <v>-0.03125000000000002</v>
+        <v>-0.0246575342465754</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.08450704225352108</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.01851851851851862</v>
+        <v>-0.01035911602209953</v>
       </c>
       <c r="I14">
-        <v>-0.0368852459016391</v>
+        <v>-0.06480000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -864,28 +864,28 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.1478816946442846</v>
+        <v>0.3966224366706876</v>
       </c>
       <c r="C15">
-        <v>0.2538963865912059</v>
+        <v>0.4608996539792387</v>
       </c>
       <c r="D15">
-        <v>0.5259899863450159</v>
+        <v>0.4416555407209614</v>
       </c>
       <c r="E15">
-        <v>0.2302681992337164</v>
+        <v>0.1496892378148512</v>
       </c>
       <c r="F15">
-        <v>0.03835932986712881</v>
+        <v>0.05730791450028883</v>
       </c>
       <c r="G15">
-        <v>0.1222873900293255</v>
+        <v>0.02330398757120661</v>
       </c>
       <c r="H15">
-        <v>0.5524709926944564</v>
+        <v>0.4436125409452503</v>
       </c>
       <c r="I15">
-        <v>0.007238259370960836</v>
+        <v>0.03703882324571978</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -893,28 +893,28 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.342946740740675</v>
+        <v>0.3172122627343014</v>
       </c>
       <c r="C16">
-        <v>0.3602740086291087</v>
+        <v>0.4383698537693369</v>
       </c>
       <c r="D16">
-        <v>0.4888208497474291</v>
+        <v>0.2769765285815673</v>
       </c>
       <c r="E16">
-        <v>-0.01687043884667688</v>
+        <v>0.01685058787604655</v>
       </c>
       <c r="F16">
-        <v>0.08908213803306103</v>
+        <v>0.05811732497915641</v>
       </c>
       <c r="G16">
-        <v>0.07945454700946669</v>
+        <v>0.05869619161335039</v>
       </c>
       <c r="H16">
-        <v>0.4936753669498867</v>
+        <v>0.3124306021880408</v>
       </c>
       <c r="I16">
-        <v>0.01614214366862186</v>
+        <v>0.0004004700809494364</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -922,13 +922,13 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.09843020789138739</v>
+        <v>-0.01565806178586546</v>
       </c>
       <c r="C17">
-        <v>0.1782634679416033</v>
+        <v>0.07204780742361756</v>
       </c>
       <c r="D17">
-        <v>-0.02663706992230859</v>
+        <v>0.03059934249346705</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1517436380772856</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I17">
-        <v>-0.01725703905540418</v>
+        <v>-0.0461798583958576</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -951,28 +951,28 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.2682903881375919</v>
+        <v>0.02572500082346358</v>
       </c>
       <c r="C18">
-        <v>0.01916938015774927</v>
+        <v>0.3346942667647007</v>
       </c>
       <c r="D18">
-        <v>0.02685543723276319</v>
+        <v>0.03489933096170147</v>
       </c>
       <c r="E18">
+        <v>0.05224702206900309</v>
+      </c>
+      <c r="F18">
+        <v>0.06587493922687847</v>
+      </c>
+      <c r="G18">
+        <v>0.02248230549164055</v>
+      </c>
+      <c r="H18">
         <v>0.06483324433984185</v>
       </c>
-      <c r="F18">
-        <v>0.08832882714330052</v>
-      </c>
-      <c r="G18">
-        <v>0.02374516627514228</v>
-      </c>
-      <c r="H18">
-        <v>0.002286133611808914</v>
-      </c>
       <c r="I18">
-        <v>0.03138581299500854</v>
+        <v>0.012486023980277</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -980,28 +980,28 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.2166228071062943</v>
+        <v>0.3623591442757568</v>
       </c>
       <c r="C19">
-        <v>0.329795378672865</v>
+        <v>0.4905143037963895</v>
       </c>
       <c r="D19">
-        <v>0.4948410357819259</v>
+        <v>0.5127016997921923</v>
       </c>
       <c r="E19">
-        <v>0.1732156364250828</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00454471995435921</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.4057079012336882</v>
+        <v>0.4789222392746438</v>
       </c>
       <c r="I19">
-        <v>0.2831905322646165</v>
+        <v>0.2368358824679002</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1009,13 +1009,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.009159159159159129</v>
+        <v>0.196566104369388</v>
       </c>
       <c r="C20">
-        <v>0.1222410865874364</v>
+        <v>0.4327097163548582</v>
       </c>
       <c r="D20">
-        <v>0.009036144578313325</v>
+        <v>0.5530566037735849</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.1561557030778516</v>
+        <v>-0.005432937181663759</v>
       </c>
       <c r="I20">
-        <v>0.4331373435851048</v>
+        <v>-0.01350084380273768</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.1386047041237971</v>
+        <v>0.007076972566241697</v>
       </c>
       <c r="C21">
-        <v>0.01467148927204403</v>
+        <v>-0.0939000102134613</v>
       </c>
       <c r="D21">
-        <v>0.02663857430179297</v>
+        <v>0.007904385353419764</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.02261762233850496</v>
+      </c>
+      <c r="I21">
         <v>-0.006359522004726558</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0.02127265466222412</v>
-      </c>
-      <c r="I21">
-        <v>0.02406039190491525</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1700547372759054</v>
+        <v>0.05843062175308097</v>
       </c>
       <c r="C22">
-        <v>0.05083391593797818</v>
+        <v>0.03197361422437982</v>
       </c>
       <c r="D22">
-        <v>0.1899565756317829</v>
+        <v>0.09803297886105697</v>
       </c>
       <c r="E22">
-        <v>0.01184396208316008</v>
+        <v>-0.01099419559389791</v>
       </c>
       <c r="F22">
-        <v>0.002917021209961198</v>
+        <v>0.003717371771517567</v>
       </c>
       <c r="G22">
-        <v>0.002917021209961198</v>
+        <v>0.002939416839041448</v>
       </c>
       <c r="H22">
-        <v>0.05297131488067872</v>
+        <v>0.02662584223267401</v>
       </c>
       <c r="I22">
-        <v>-0.01361743060538818</v>
+        <v>-0.02695256059862047</v>
       </c>
     </row>
   </sheetData>

--- a/Affy/ARI/ARI_zpercentage_normed_results.xlsx
+++ b/Affy/ARI/ARI_zpercentage_normed_results.xlsx
@@ -487,28 +487,28 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.01124924817744999</v>
+        <v>0.1953800493797877</v>
       </c>
       <c r="C2">
-        <v>0.3250033953551542</v>
+        <v>0.1711555450899547</v>
       </c>
       <c r="D2">
-        <v>0.4690748481128704</v>
+        <v>0.2055143038697947</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.05245290935614048</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0007180983975665706</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0.003348027076152512</v>
       </c>
       <c r="H2">
-        <v>0.2313311609357522</v>
+        <v>0.1880654163331413</v>
       </c>
       <c r="I2">
-        <v>0.6767049423462985</v>
+        <v>0.1034961785329927</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -516,28 +516,28 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.3562861756232065</v>
+        <v>0.4587968485602124</v>
       </c>
       <c r="C3">
-        <v>0.2818984299981965</v>
+        <v>0.4444930839017834</v>
       </c>
       <c r="D3">
-        <v>0.488069352733541</v>
+        <v>0.4408192160504194</v>
       </c>
       <c r="E3">
-        <v>0.05339431913350126</v>
+        <v>0.08048985781124031</v>
       </c>
       <c r="F3">
-        <v>0.04774712108833655</v>
+        <v>0.008502966603625999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.004797479878160264</v>
       </c>
       <c r="H3">
-        <v>0.4839490503001195</v>
+        <v>0.5097757823054496</v>
       </c>
       <c r="I3">
-        <v>0.1395325829597731</v>
+        <v>0.1371729490230585</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -545,28 +545,28 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1845456900318564</v>
+        <v>0.188148008398922</v>
       </c>
       <c r="C4">
-        <v>0.1321862666885196</v>
+        <v>0.1117818504773452</v>
       </c>
       <c r="D4">
-        <v>0.1699182720119316</v>
+        <v>0.180458282339936</v>
       </c>
       <c r="E4">
-        <v>0.151613317885106</v>
+        <v>0.1781288805996816</v>
       </c>
       <c r="F4">
-        <v>0.2321718655443033</v>
+        <v>0.167152091569111</v>
       </c>
       <c r="G4">
-        <v>0.1608706819801428</v>
+        <v>0.1524251435731222</v>
       </c>
       <c r="H4">
-        <v>0.1387576919398306</v>
+        <v>0.08109646243645514</v>
       </c>
       <c r="I4">
-        <v>0.4038575535856002</v>
+        <v>0.2579866621878011</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -574,28 +574,28 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.3085320317743733</v>
+        <v>0.4559682127915846</v>
       </c>
       <c r="C5">
-        <v>0.8491380323169346</v>
+        <v>0.4556001953349625</v>
       </c>
       <c r="D5">
-        <v>0.6538963727547132</v>
+        <v>0.5485493412052636</v>
       </c>
       <c r="E5">
-        <v>-0.02441110408077751</v>
+        <v>0.02117036979805202</v>
       </c>
       <c r="F5">
-        <v>0.06377086857981945</v>
+        <v>0.06377086857981949</v>
       </c>
       <c r="G5">
-        <v>0.06377086857981945</v>
+        <v>0.06377086857981949</v>
       </c>
       <c r="H5">
-        <v>0.3680954120143309</v>
+        <v>0.5204943081173675</v>
       </c>
       <c r="I5">
-        <v>-0.01901695892664874</v>
+        <v>0.03156460953515256</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -603,28 +603,28 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.3678593848085374</v>
+        <v>0.3062242128089969</v>
       </c>
       <c r="C6">
-        <v>0.2047576031315868</v>
+        <v>0.3400714610006073</v>
       </c>
       <c r="D6">
-        <v>0.3785868559086702</v>
+        <v>0.2792033031449063</v>
       </c>
       <c r="E6">
-        <v>0.1108905275099262</v>
+        <v>0.09746730321547183</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003374178197968614</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0.0003935925922798934</v>
       </c>
       <c r="H6">
-        <v>0.5589600742804085</v>
+        <v>0.298262514496099</v>
       </c>
       <c r="I6">
-        <v>0.3838143409699494</v>
+        <v>0.1805932391751831</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -632,28 +632,28 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.009318380708520969</v>
+        <v>0.1552259622929311</v>
       </c>
       <c r="C7">
-        <v>0.1552079724667571</v>
+        <v>0.1188857750580353</v>
       </c>
       <c r="D7">
-        <v>0.01038648203248693</v>
+        <v>0.0954035162755663</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0427303311035033</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.00240387259385842</v>
       </c>
       <c r="G7">
-        <v>-0.01280175566934875</v>
+        <v>0.003457724746598889</v>
       </c>
       <c r="H7">
-        <v>0.118959523504126</v>
+        <v>0.1250679032622835</v>
       </c>
       <c r="I7">
-        <v>-0.01280175566934875</v>
+        <v>0.04313176457705431</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -661,28 +661,28 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.09996073751251677</v>
+        <v>0.1616013813810033</v>
       </c>
       <c r="C8">
-        <v>0.1768414935347959</v>
+        <v>0.1785259977716677</v>
       </c>
       <c r="D8">
-        <v>0.2756025859783603</v>
+        <v>0.1342005261121743</v>
       </c>
       <c r="E8">
-        <v>0.0225238498398859</v>
+        <v>0.01166666741976016</v>
       </c>
       <c r="F8">
-        <v>-0.02486276456027156</v>
+        <v>0.00555296934156119</v>
       </c>
       <c r="G8">
-        <v>-0.01058170630014085</v>
+        <v>-0.003455151296049244</v>
       </c>
       <c r="H8">
-        <v>0.1492403433014898</v>
+        <v>0.1558735995392921</v>
       </c>
       <c r="I8">
-        <v>0.09707718452990623</v>
+        <v>0.03751123305462132</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -690,28 +690,28 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.296685726588274</v>
+        <v>0.1766467058592636</v>
       </c>
       <c r="C9">
-        <v>0.0693593639405216</v>
+        <v>0.1532054832057375</v>
       </c>
       <c r="D9">
-        <v>0.01570140263607593</v>
+        <v>0.2177497215267389</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07646552374737524</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05368543734894553</v>
       </c>
       <c r="G9">
-        <v>-0.008735531775496833</v>
+        <v>0.04306919147528068</v>
       </c>
       <c r="H9">
-        <v>0.2091178390319828</v>
+        <v>0.1435644212301636</v>
       </c>
       <c r="I9">
-        <v>0.8012695630330529</v>
+        <v>0.268220849705436</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -719,28 +719,28 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.01587301587301587</v>
+        <v>0.07557802324626357</v>
       </c>
       <c r="C10">
-        <v>-0.01587301587301587</v>
+        <v>0.1017051635846438</v>
       </c>
       <c r="D10">
-        <v>-0.00678179402922467</v>
+        <v>0.03343250088588996</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.05401658136762503</v>
       </c>
       <c r="F10">
-        <v>0.1321566939302625</v>
+        <v>-0.01487482180241056</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-0.002445988649282518</v>
       </c>
       <c r="H10">
-        <v>0.09954158480681068</v>
+        <v>0.1078002663103425</v>
       </c>
       <c r="I10">
-        <v>0.2043222003929273</v>
+        <v>0.07135920843464814</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -748,28 +748,28 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.008934597828698257</v>
+        <v>0.07663309332654443</v>
       </c>
       <c r="C11">
-        <v>0.1294213225719503</v>
+        <v>0.1316518659345531</v>
       </c>
       <c r="D11">
-        <v>0.07028549104016626</v>
+        <v>0.08298360164954709</v>
       </c>
       <c r="E11">
-        <v>0.09535205945333163</v>
+        <v>0.1638039158683188</v>
       </c>
       <c r="F11">
-        <v>0.2423727408389985</v>
+        <v>0.3744874632083616</v>
       </c>
       <c r="G11">
-        <v>0.4915423685964469</v>
+        <v>0.3681850219089873</v>
       </c>
       <c r="H11">
-        <v>0.126038581154617</v>
+        <v>0.03325785021561036</v>
       </c>
       <c r="I11">
-        <v>0.155808664068974</v>
+        <v>0.2119410447546896</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -777,28 +777,28 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.03802281368821287</v>
+        <v>-0.0102678980023425</v>
       </c>
       <c r="C12">
-        <v>0.08950874271440465</v>
+        <v>0.02667910210258152</v>
       </c>
       <c r="D12">
-        <v>-0.02574926129168418</v>
+        <v>-0.02508390492631309</v>
       </c>
       <c r="E12">
-        <v>0.05204460966542741</v>
+        <v>0.02840936674136804</v>
       </c>
       <c r="F12">
-        <v>0.005728314238952386</v>
+        <v>0.08823466354231382</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.028817467311739</v>
       </c>
       <c r="H12">
-        <v>-0.03802281368821287</v>
+        <v>-0.03008628587431179</v>
       </c>
       <c r="I12">
-        <v>0.02302631578947371</v>
+        <v>0.06121980314471011</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -806,28 +806,28 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.04904632152588552</v>
+        <v>-0.01137736221184453</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.03992947929595085</v>
       </c>
       <c r="D13">
-        <v>0.01621621621621616</v>
+        <v>0.04399068429307294</v>
       </c>
       <c r="E13">
-        <v>0.3514986376021799</v>
+        <v>0.09041167627469893</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.976338028169014</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.9655384615384616</v>
       </c>
       <c r="H13">
-        <v>-0.04904632152588552</v>
+        <v>-0.03277818041280536</v>
       </c>
       <c r="I13">
-        <v>-0.04297994269340966</v>
+        <v>0.4549642110302199</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -835,28 +835,28 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.04724964739069114</v>
+        <v>0.05431839971676064</v>
       </c>
       <c r="C14">
-        <v>0.04281767955801098</v>
+        <v>0.08207597047571173</v>
       </c>
       <c r="D14">
-        <v>-0.0246575342465754</v>
+        <v>0.03048636805858053</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-0.001467805370247429</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.02913738166705147</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-0.0003791244405003746</v>
       </c>
       <c r="H14">
-        <v>-0.01035911602209953</v>
+        <v>0.08251573202238709</v>
       </c>
       <c r="I14">
-        <v>-0.06480000000000009</v>
+        <v>-0.008602439283737079</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -864,28 +864,28 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.3966224366706876</v>
+        <v>0.3274109547224809</v>
       </c>
       <c r="C15">
-        <v>0.4608996539792387</v>
+        <v>0.3162879490390558</v>
       </c>
       <c r="D15">
-        <v>0.4416555407209614</v>
+        <v>0.3505577070647339</v>
       </c>
       <c r="E15">
-        <v>0.1496892378148512</v>
+        <v>0.08036868531019582</v>
       </c>
       <c r="F15">
-        <v>0.05730791450028883</v>
+        <v>0.06236739201244557</v>
       </c>
       <c r="G15">
-        <v>0.02330398757120661</v>
+        <v>0.0526765002291307</v>
       </c>
       <c r="H15">
-        <v>0.4436125409452503</v>
+        <v>0.3434814648910088</v>
       </c>
       <c r="I15">
-        <v>0.03703882324571978</v>
+        <v>0.07341904876020085</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -893,28 +893,28 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.3172122627343014</v>
+        <v>0.371541470292391</v>
       </c>
       <c r="C16">
-        <v>0.4383698537693369</v>
+        <v>0.403838931550134</v>
       </c>
       <c r="D16">
-        <v>0.2769765285815673</v>
+        <v>0.3450447706689371</v>
       </c>
       <c r="E16">
-        <v>0.01685058787604655</v>
+        <v>0.008091727886903839</v>
       </c>
       <c r="F16">
-        <v>0.05811732497915641</v>
+        <v>0.07284483683720244</v>
       </c>
       <c r="G16">
-        <v>0.05869619161335039</v>
+        <v>0.06772628977141242</v>
       </c>
       <c r="H16">
-        <v>0.3124306021880408</v>
+        <v>0.3831027759684719</v>
       </c>
       <c r="I16">
-        <v>0.0004004700809494364</v>
+        <v>0.02834249908675289</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -922,28 +922,28 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>-0.01565806178586546</v>
+        <v>0.04467570259149072</v>
       </c>
       <c r="C17">
-        <v>0.07204780742361756</v>
+        <v>0.07942138605323476</v>
       </c>
       <c r="D17">
-        <v>0.03059934249346705</v>
+        <v>0.01868123686975294</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.003061149148683148</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-0.05210209691285504</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-0.0113025205039423</v>
       </c>
       <c r="H17">
-        <v>0.1720430107526882</v>
+        <v>0.0879384878185223</v>
       </c>
       <c r="I17">
-        <v>-0.0461798583958576</v>
+        <v>-0.01460753349974736</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -951,28 +951,28 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.02572500082346358</v>
+        <v>0.1104000361992561</v>
       </c>
       <c r="C18">
-        <v>0.3346942667647007</v>
+        <v>0.1257131119853228</v>
       </c>
       <c r="D18">
-        <v>0.03489933096170147</v>
+        <v>0.1145803199823692</v>
       </c>
       <c r="E18">
-        <v>0.05224702206900309</v>
+        <v>0.06038413239142196</v>
       </c>
       <c r="F18">
-        <v>0.06587493922687847</v>
+        <v>0.07012822423202798</v>
       </c>
       <c r="G18">
-        <v>0.02248230549164055</v>
+        <v>0.04148635271677678</v>
       </c>
       <c r="H18">
-        <v>0.06483324433984185</v>
+        <v>0.1054246196438288</v>
       </c>
       <c r="I18">
-        <v>0.012486023980277</v>
+        <v>0.09628508856532461</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -980,28 +980,28 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.3623591442757568</v>
+        <v>0.3488708130464795</v>
       </c>
       <c r="C19">
-        <v>0.4905143037963895</v>
+        <v>0.3764149695825427</v>
       </c>
       <c r="D19">
-        <v>0.5127016997921923</v>
+        <v>0.3441625842163086</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.06435780871608034</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.002166414806707771</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.006030812266023802</v>
       </c>
       <c r="H19">
-        <v>0.4789222392746438</v>
+        <v>0.3796508862337382</v>
       </c>
       <c r="I19">
-        <v>0.2368358824679002</v>
+        <v>0.2568764165824205</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.196566104369388</v>
+        <v>0.1366939620223956</v>
       </c>
       <c r="C20">
-        <v>0.4327097163548582</v>
+        <v>0.1006935350215548</v>
       </c>
       <c r="D20">
-        <v>0.5530566037735849</v>
+        <v>0.209585574001503</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.01553431717668158</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.001852304252299098</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007116382505559574</v>
       </c>
       <c r="H20">
-        <v>-0.005432937181663759</v>
+        <v>0.1609637036999466</v>
       </c>
       <c r="I20">
-        <v>-0.01350084380273768</v>
+        <v>0.03950105875050521</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.007076972566241697</v>
+        <v>0.1078127937262478</v>
       </c>
       <c r="C21">
-        <v>-0.0939000102134613</v>
+        <v>0.01591307879423264</v>
       </c>
       <c r="D21">
-        <v>0.007904385353419764</v>
+        <v>0.104672003188822</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>-0.001958936724988496</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-0.0002543808801890623</v>
       </c>
       <c r="H21">
-        <v>0.02261762233850496</v>
+        <v>0.04065987530556783</v>
       </c>
       <c r="I21">
-        <v>-0.006359522004726558</v>
+        <v>0.03548144214628565</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.05843062175308097</v>
+        <v>0.06920377722221374</v>
       </c>
       <c r="C22">
-        <v>0.03197361422437982</v>
+        <v>0.0310393363893458</v>
       </c>
       <c r="D22">
-        <v>0.09803297886105697</v>
+        <v>0.102862997081524</v>
       </c>
       <c r="E22">
-        <v>-0.01099419559389791</v>
+        <v>0.01040407318799136</v>
       </c>
       <c r="F22">
-        <v>0.003717371771517567</v>
+        <v>0.0005419127592116346</v>
       </c>
       <c r="G22">
-        <v>0.002939416839041448</v>
+        <v>0.002117898366272906</v>
       </c>
       <c r="H22">
-        <v>0.02662584223267401</v>
+        <v>0.04727496406627809</v>
       </c>
       <c r="I22">
-        <v>-0.02695256059862047</v>
+        <v>0.008191059148911092</v>
       </c>
     </row>
   </sheetData>
